--- a/output/【河洛話注音】前赤壁賦．蘇軾.xlsx
+++ b/output/【河洛話注音】前赤壁賦．蘇軾.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanjui/workspace/rime/piau-im/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Piau-Im\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0847C69A-5F20-6449-B811-7855025BD778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B2236D-A1DF-4666-85A9-62FCCC617168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-82000" yWindow="2660" windowWidth="28540" windowHeight="17320" xr2:uid="{0C30D34C-411D-814D-81A7-6C3D5DB38858}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{0C30D34C-411D-814D-81A7-6C3D5DB38858}"/>
   </bookViews>
   <sheets>
     <sheet name="閩拼拼音" sheetId="21" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6372" uniqueCount="1870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6373" uniqueCount="1871">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5716,6 +5716,10 @@
   </si>
   <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;滄&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;cōng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t>北宋：蘇軾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5748,7 +5752,7 @@
       <sz val="18"/>
       <color theme="1"/>
       <name val="Heiti TC Light"/>
-      <charset val="136"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -5820,9 +5824,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主題">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5860,7 +5864,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -5966,7 +5970,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6108,7 +6112,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6118,16 +6122,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{210D1052-1338-DA4D-94B9-46AAAFCBF101}">
   <dimension ref="A1:A630"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="25.5"/>
   <cols>
-    <col min="1" max="1" width="128.69921875" customWidth="1"/>
+    <col min="1" max="1" width="128.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="184">
+    <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
         <v>1571</v>
       </c>
@@ -9291,11 +9295,11 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="25.5"/>
   <cols>
-    <col min="1" max="1" width="3.3984375" customWidth="1"/>
-    <col min="2" max="2" width="19.296875" customWidth="1"/>
-    <col min="3" max="3" width="85.296875" customWidth="1"/>
+    <col min="1" max="1" width="3.36328125" customWidth="1"/>
+    <col min="2" max="2" width="19.26953125" customWidth="1"/>
+    <col min="3" max="3" width="85.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
@@ -9355,12 +9359,12 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="25.5"/>
   <cols>
-    <col min="1" max="1" width="128.69921875" customWidth="1"/>
+    <col min="1" max="1" width="128.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="184">
+    <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
         <v>1463</v>
       </c>
@@ -12524,12 +12528,12 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="25.5"/>
   <cols>
-    <col min="1" max="1" width="128.69921875" customWidth="1"/>
+    <col min="1" max="1" width="128.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="184">
+    <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
         <v>1189</v>
       </c>
@@ -15693,12 +15697,12 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="25.5"/>
   <cols>
-    <col min="1" max="1" width="128.69921875" customWidth="1"/>
+    <col min="1" max="1" width="128.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="184">
+    <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
         <v>915</v>
       </c>
@@ -18862,12 +18866,12 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="25.5"/>
   <cols>
-    <col min="1" max="1" width="128.69921875" customWidth="1"/>
+    <col min="1" max="1" width="128.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="184">
+    <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
         <v>639</v>
       </c>
@@ -22031,7 +22035,7 @@
       <selection activeCell="F410" sqref="F410"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="25.5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -22123,12 +22127,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="46">
+    <row r="7" spans="1:6" ht="51">
       <c r="A7" s="1" t="s">
         <v>1840</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="46">
+    <row r="8" spans="1:6" ht="51">
       <c r="A8" s="1" t="s">
         <v>1840</v>
       </c>
@@ -24325,12 +24329,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="46">
+    <row r="133" spans="1:6" ht="51">
       <c r="A133" s="1" t="s">
         <v>1840</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="46">
+    <row r="134" spans="1:6" ht="51">
       <c r="A134" s="1" t="s">
         <v>1840</v>
       </c>
@@ -26045,12 +26049,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="234" spans="1:6" ht="46">
+    <row r="234" spans="1:6" ht="51">
       <c r="A234" s="1" t="s">
         <v>1840</v>
       </c>
     </row>
-    <row r="235" spans="1:6" ht="46">
+    <row r="235" spans="1:6" ht="51">
       <c r="A235" s="1" t="s">
         <v>1840</v>
       </c>
@@ -26425,12 +26429,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="259" spans="1:6" ht="46">
+    <row r="259" spans="1:6" ht="51">
       <c r="A259" s="1" t="s">
         <v>1840</v>
       </c>
     </row>
-    <row r="260" spans="1:6" ht="46">
+    <row r="260" spans="1:6" ht="51">
       <c r="A260" s="1" t="s">
         <v>1840</v>
       </c>
@@ -29858,12 +29862,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="459" spans="1:6" ht="46">
+    <row r="459" spans="1:6" ht="51">
       <c r="A459" s="1" t="s">
         <v>1840</v>
       </c>
     </row>
-    <row r="460" spans="1:6" ht="46">
+    <row r="460" spans="1:6" ht="51">
       <c r="A460" s="1" t="s">
         <v>1840</v>
       </c>
@@ -32813,7 +32817,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="627" spans="1:1" ht="46">
+    <row r="627" spans="1:1" ht="51">
       <c r="A627" s="1" t="s">
         <v>22</v>
       </c>
@@ -32830,7 +32834,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="25.5"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1">
@@ -38826,7 +38830,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="25.5"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1">
@@ -38891,49 +38895,54 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726CD64A-137E-5D43-9FB5-9308AA34DAE6}">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="25.5"/>
   <cols>
-    <col min="1" max="1" width="128.69921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="128.7265625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="23">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="46">
-      <c r="A3" s="1" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="76.5">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="46">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:1" ht="51">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="23">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="69">
-      <c r="A9" s="5" t="s">
+    <row r="10" spans="1:1" ht="93">
+      <c r="A10" s="5" t="s">
         <v>1837</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="69">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:1" ht="76.5">
+      <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="23">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
